--- a/data/QMT Data New.xlsx
+++ b/data/QMT Data New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansur\PycharmProjects\EY-Project-Query_management_agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754FF6F-217C-4623-BD04-32A8040127E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E42D7-48E1-427D-A359-1E79D9A2AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="355">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -59,15 +59,6 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>Ticket Updated Date</t>
-  </si>
-  <si>
-    <t>Auto Solved</t>
-  </si>
-  <si>
-    <t>AI Response</t>
-  </si>
-  <si>
     <t>TCK-1000</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>PO Inquiry</t>
   </si>
   <si>
-    <t>The approval status of PO PO-5003 is: Pending.</t>
-  </si>
-  <si>
     <t>TCK-1003</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
     <t>Payment Clearing</t>
   </si>
   <si>
-    <t>The clearing date for invoice INV-1005 is not available in the database.</t>
-  </si>
-  <si>
     <t>TCK-1005</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>Payment Inquiry</t>
   </si>
   <si>
-    <t>Invoice INV-1007 is currently Unpaid. The PO status is Pending and the invoice due date is not yet reached. No payment has been cleared as of now.</t>
-  </si>
-  <si>
     <t>TCK-1007</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>Payment Confirmation</t>
   </si>
   <si>
-    <t>Invoice INV-1009 is marked as Paid, but the clearing date is not available in the records. If you need the exact payment clearing date, please provide additional details or contact your finance team.</t>
-  </si>
-  <si>
     <t>TCK-1009</t>
   </si>
   <si>
@@ -218,18 +197,12 @@
     <t>Michael Green</t>
   </si>
   <si>
-    <t>Invoice INV-1010 is currently Unpaid. The PO associated is PO-5011 (Approved).</t>
-  </si>
-  <si>
     <t>TCK-1011</t>
   </si>
   <si>
     <t>Can I get invoice INV-2011 corrected?</t>
   </si>
   <si>
-    <t>Invoice INV-2011 was found in the system (Amount: 2200, Customer: Sigma LLC, PO Number: PO-5012, Payment Status: Unpaid). However, as an AI agent, I do not have the capability to make corrections to invoices. Please contact the finance or accounts team to request a correction for this invoice.</t>
-  </si>
-  <si>
     <t>TCK-1012</t>
   </si>
   <si>
@@ -242,44 +215,24 @@
     <t>Need details of invoice INV-2013</t>
   </si>
   <si>
-    <t>Invoice INV-2013 details:
-- Invoice Date: 1970-01-01
-- Invoice Amount: 1450
-- PO Number: PO-5014 (Status: Approved)
-- Payment Status: Unpaid
-- Payment Term: Net 30
-- Due Date: 1970-01-01
-- Customer Name: Epsilon Corp (Germany)
-If you need more information, please specify.</t>
-  </si>
-  <si>
     <t>TCK-1014</t>
   </si>
   <si>
     <t>Confirm PO PO-5015 approval</t>
   </si>
   <si>
-    <t>The PO Number PO-5015 currently has a status of 'Pending' and has not yet been approved.</t>
-  </si>
-  <si>
     <t>TCK-1015</t>
   </si>
   <si>
     <t>When is payment due for INV-2015?</t>
   </si>
   <si>
-    <t>The payment for Invoice INV-2015 is due on 1970-01-01. The payment status is currently 'Unpaid'.</t>
-  </si>
-  <si>
     <t>TCK-1016</t>
   </si>
   <si>
     <t>Request clearing date for INV-1016</t>
   </si>
   <si>
-    <t>The clearing date for Invoice INV-1016 is not available (Clearing Date: NaT).</t>
-  </si>
-  <si>
     <t>TCK-1017</t>
   </si>
   <si>
@@ -298,18 +251,12 @@
     <t>Can credit note CN-2020 be applied?</t>
   </si>
   <si>
-    <t>Credit note CN-2020 was not found in the database. Please verify the credit note number or provide additional details for further assistance.</t>
-  </si>
-  <si>
     <t>TCK-1020</t>
   </si>
   <si>
     <t>Requesting payment date for INV-1020</t>
   </si>
   <si>
-    <t>Invoice INV-1020 is currently Unpaid. There is no payment date or clearing date recorded yet.</t>
-  </si>
-  <si>
     <t>TCK-1021</t>
   </si>
   <si>
@@ -328,36 +275,24 @@
     <t>Laura Scott</t>
   </si>
   <si>
-    <t>The approval status for PO PO-5023 is 'Pending'.</t>
-  </si>
-  <si>
     <t>TCK-1023</t>
   </si>
   <si>
     <t>Payment due date for INV-2023?</t>
   </si>
   <si>
-    <t>The payment due date for invoice INV-2023 is 1970-01-01.</t>
-  </si>
-  <si>
     <t>TCK-1024</t>
   </si>
   <si>
     <t>Request clearing date for INV-1024</t>
   </si>
   <si>
-    <t>Invoice INV-1024 is marked as Paid, but the clearing date is not available in the records.</t>
-  </si>
-  <si>
     <t>TCK-1025</t>
   </si>
   <si>
     <t>When will credit note CN-2025 be applied?</t>
   </si>
   <si>
-    <t>Credit note CN-2025 has not yet been applied. Its payment status is 'Unpaid' and there is no clearing date available.</t>
-  </si>
-  <si>
     <t>TCK-1026</t>
   </si>
   <si>
@@ -370,9 +305,6 @@
     <t>Request invoice INV-2027 correction</t>
   </si>
   <si>
-    <t>Invoice INV-2027 is recorded for customer Sigma LLC, amount £2,100, PO-5028 (Approved), and is currently Unpaid. However, I am unable to process invoice corrections directly. Please specify the exact details or corrections needed (e.g., amount, customer, PO number, or other data to be changed), so the request can be forwarded to the appropriate team.</t>
-  </si>
-  <si>
     <t>TCK-1028</t>
   </si>
   <si>
@@ -385,9 +317,6 @@
     <t>Need payment confirmation for INV-2029</t>
   </si>
   <si>
-    <t>Invoice INV-2029 is currently Unpaid. There is no payment confirmation or clearing date available at this time.</t>
-  </si>
-  <si>
     <t>TCK-1030</t>
   </si>
   <si>
@@ -400,9 +329,6 @@
     <t>Alicia Brown</t>
   </si>
   <si>
-    <t>Invoice INV-1030 from Alpha Supplies for $2,900 is currently Unpaid. The PO number associated is PO-5031 and its status is Approved. The payment terms are Net 30. Please let us know if you need further details.</t>
-  </si>
-  <si>
     <t>TCK-1031</t>
   </si>
   <si>
@@ -415,18 +341,12 @@
     <t>Please confirm PO PO-5033 approval</t>
   </si>
   <si>
-    <t>The approval status for PO PO-5033 is currently 'Pending.' It has not been approved yet.</t>
-  </si>
-  <si>
     <t>TCK-1033</t>
   </si>
   <si>
     <t>When is payment due for invoice INV-2033?</t>
   </si>
   <si>
-    <t>The payment for invoice INV-2033 is due on 1970-01-01. The current payment status is 'Unpaid'.</t>
-  </si>
-  <si>
     <t>TCK-1034</t>
   </si>
   <si>
@@ -439,18 +359,12 @@
     <t>Kevin Hall</t>
   </si>
   <si>
-    <t>The clearing date for invoice INV-1034 is not available in the database.</t>
-  </si>
-  <si>
     <t>TCK-1035</t>
   </si>
   <si>
     <t>Payment confirmation for INV-2035 needed</t>
   </si>
   <si>
-    <t>Invoice INV-2035 is currently Unpaid and has not been cleared yet.</t>
-  </si>
-  <si>
     <t>TCK-1036</t>
   </si>
   <si>
@@ -463,41 +377,24 @@
     <t>Request invoice INV-2037 correction</t>
   </si>
   <si>
-    <t>Invoice INV-2037 is found with the following details: Customer Name: Sigma LLC, Amount: 2250, Status: Unpaid, PO Number: PO-5038. Please specify what correction is needed for this invoice so that we can address your request accurately.</t>
-  </si>
-  <si>
     <t>TCK-1038</t>
   </si>
   <si>
     <t>Payment confirmation for INV-1038 required</t>
   </si>
   <si>
-    <t>Invoice INV-1038 from Nova Supplies is marked as Paid. However, the clearing date is not available in the records.</t>
-  </si>
-  <si>
     <t>TCK-1039</t>
   </si>
   <si>
     <t>When will credit note CN-2039 be applied?</t>
   </si>
   <si>
-    <t>Credit note CN-2039 has not been applied yet. Its payment status is currently 'Unpaid' and there is no clearing date on record.</t>
-  </si>
-  <si>
     <t>TCK-1040</t>
   </si>
   <si>
     <t>Can you provide the discrepancy details for INV-1040?</t>
   </si>
   <si>
-    <t>For invoice INV-1040 from Horizon Supplies (PO-5041):
-- Invoice Amount: $2,850
-- Status: Unpaid
-- PO Status: Approved
-- Due Date: 1970-01-01
-There are no specific discrepancies noted in the database for this invoice. If you are referring to a particular issue or mismatch, please clarify the nature of the discrepancy you are seeking.</t>
-  </si>
-  <si>
     <t>TCK-1041</t>
   </si>
   <si>
@@ -507,10 +404,6 @@
     <t>Payment Application</t>
   </si>
   <si>
-    <t>A partial payment can be applied to invoice INV-2041 (Amount: 1750, Status: Unpaid). However, to process a partial payment, please follow your organization's standard process in your payment or ERP system, specifying the invoice number and the partial amount you wish to pay. If you require system-specific steps or need assistance initiating the transaction, please let us know your payment platform.
-If you need confirmation or tracking of the partial payment after initiating it, please provide the transaction details or payment reference.</t>
-  </si>
-  <si>
     <t>TCK-1042</t>
   </si>
   <si>
@@ -532,9 +425,6 @@
     <t>Grace Taylor</t>
   </si>
   <si>
-    <t>Invoice INV-2043 has an amount of 2400. However, there is no specific information available in the invoice record indicating whether this includes late fees. Please review the invoice document or contact your accounts representative for detailed fee breakdowns.</t>
-  </si>
-  <si>
     <t>TCK-1044</t>
   </si>
   <si>
@@ -571,9 +461,6 @@
     <t>Can I request an early payment option for INV-2047?</t>
   </si>
   <si>
-    <t>Invoice INV-2047 is currently unpaid with a payment term of Net 30 and due for Sigma LLC. While the invoice is eligible for standard payment terms, requests for early payment must generally be submitted through the accounts payable or finance department as per company policy. Please contact your finance team or submit a formal request to initiate an early payment option for this invoice.</t>
-  </si>
-  <si>
     <t>TCK-1048</t>
   </si>
   <si>
@@ -583,11 +470,6 @@
     <t>Bank Details</t>
   </si>
   <si>
-    <t>I do not have the ability to update or correct supplier bank details—my current access is limited to invoice status and related information.
-If you need invoice status or payment details for INV-1048, please confirm. Otherwise, for bank details correction, please reach out to your procurement or accounts team with appropriate authorization.
-Marking as auto_solved: Data not found in database for bank detail corrections.</t>
-  </si>
-  <si>
     <t>TCK-1049</t>
   </si>
   <si>
@@ -597,13 +479,7 @@
     <t>Payment Dispute</t>
   </si>
   <si>
-    <t>Invoice INV-2049 is currently marked as 'Unpaid' with a payment term of Net 30. The due date for this invoice was 1970-01-01. Since it is not cleared and the due date has long passed, the system correctly marks it as overdue. If you believe this is incorrect, please provide additional details or supporting documents regarding the payment of this invoice.</t>
-  </si>
-  <si>
     <t>TCK-1050</t>
-  </si>
-  <si>
-    <t>Invoice INV-2049 is currently marked as 'Unpaid' with a Payment Term of 'Net 30'. The system may mark it as overdue if payment hasn't been received within 30 days from the invoice date. Please review the due date and payment records. If there has been an error and the invoice was paid, documentation of payment can help update the status.</t>
   </si>
   <si>
     <t>Invoice Number</t>
@@ -1221,7 +1097,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1121,43 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1289,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1342,6 +1255,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,7 +1591,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection sqref="A1:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,2262 +1600,1964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="25">
+        <v>46032</v>
+      </c>
+      <c r="I2" s="26">
+        <v>46034</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18">
-        <v>46032</v>
-      </c>
-      <c r="I2" s="18">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="25">
+        <v>46033</v>
+      </c>
+      <c r="I3" s="26">
+        <v>46033</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="25">
         <v>46034</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="25">
+        <v>46035</v>
+      </c>
+      <c r="I5" s="26">
+        <v>46035</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="25">
+        <v>46036</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="25">
+        <v>46037</v>
+      </c>
+      <c r="I7" s="26">
+        <v>46036</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="25">
+        <v>46038</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="25">
+        <v>46039</v>
+      </c>
+      <c r="I9" s="26">
+        <v>46038</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="25">
+        <v>46040</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="25">
+        <v>46041</v>
+      </c>
+      <c r="I11" s="26">
+        <v>46039</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="25">
+        <v>46042</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="25">
+        <v>46043</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="25">
+        <v>46044</v>
+      </c>
+      <c r="I14" s="30">
+        <v>46046</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="25">
+        <v>46045</v>
+      </c>
+      <c r="I15" s="30">
+        <v>46050</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="25">
+        <v>46046</v>
+      </c>
+      <c r="I16" s="30">
+        <v>46052</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="25">
+        <v>46047</v>
+      </c>
+      <c r="I17" s="30">
+        <v>46053</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="18">
-        <v>46033</v>
-      </c>
-      <c r="I3" s="18">
-        <v>46033</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="25">
+        <v>46048</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="25">
+        <v>46049</v>
+      </c>
+      <c r="I19" s="31">
+        <v>46050</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="25">
+        <v>46050</v>
+      </c>
+      <c r="I20" s="31">
+        <v>46052</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="25">
+        <v>46051</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="25">
+        <v>46052</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="25">
+        <v>46053</v>
+      </c>
+      <c r="I23" s="31">
+        <v>46053</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="25">
+        <v>46054</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="C25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="25">
+        <v>46055</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="25">
+        <v>46056</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="25">
+        <v>46057</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="25">
+        <v>46058</v>
+      </c>
+      <c r="I28" s="31">
+        <v>46175</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="25">
+        <v>46059</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="25">
+        <v>46060</v>
+      </c>
+      <c r="I30" s="31">
+        <v>46236</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="25">
+        <v>46061</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F32" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G32" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="25">
+        <v>46062</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="25">
+        <v>46063</v>
+      </c>
+      <c r="I33" s="31">
+        <v>46297</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="25">
+        <v>46064</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="18">
-        <v>46034</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="25">
+        <v>46065</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="25">
+        <v>46066</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="C37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="18">
-        <v>46059.627951388888</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D37" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="25">
+        <v>46067</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="25">
+        <v>46068</v>
+      </c>
+      <c r="I38" s="25">
+        <v>46069</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="18">
-        <v>46035</v>
-      </c>
-      <c r="I5" s="18">
-        <v>46035</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="G39" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="25">
+        <v>46069</v>
+      </c>
+      <c r="I39" s="25">
+        <v>46075</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="25">
+        <v>46070</v>
+      </c>
+      <c r="I40" s="25">
+        <v>46079</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="C41" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D41" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="25">
+        <v>46071</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="25">
+        <v>46072</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="25">
+        <v>46073</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="J43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="25">
+        <v>46074</v>
+      </c>
+      <c r="I44" s="25">
+        <v>46069</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F45" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="18">
-        <v>46036</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="25">
+        <v>46075</v>
+      </c>
+      <c r="I45" s="25">
+        <v>46075</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="25">
+        <v>46076</v>
+      </c>
+      <c r="I46" s="25">
+        <v>46079</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="C47" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="18">
-        <v>46059.628020833326</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D47" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="25">
+        <v>46077</v>
+      </c>
+      <c r="I47" s="32"/>
+      <c r="J47" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="25">
+        <v>46078</v>
+      </c>
+      <c r="I48" s="25">
+        <v>46069</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="18">
-        <v>46037</v>
-      </c>
-      <c r="I7" s="18">
-        <v>46036</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="G49" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="25">
+        <v>46079</v>
+      </c>
+      <c r="I49" s="25">
+        <v>46075</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="25">
+        <v>46080</v>
+      </c>
+      <c r="I50" s="25">
+        <v>46079</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="C51" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D51" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="18">
-        <v>46038</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="G51" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="25">
+        <v>46081</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
+      <c r="C52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="18">
-        <v>46059.62809027778</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="18">
-        <v>46039</v>
-      </c>
-      <c r="I9" s="18">
-        <v>46038</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D52" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="18">
-        <v>46040</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="18">
-        <v>46059.628171296303</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18">
-        <v>46041</v>
-      </c>
-      <c r="I11" s="18">
-        <v>46039</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="18">
-        <v>46042</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="18">
-        <v>46059.628240740742</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="18">
-        <v>46043</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="18">
-        <v>46059.628321759257</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="18">
-        <v>46044</v>
-      </c>
-      <c r="I14" s="18">
-        <v>46046</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18">
-        <v>46045</v>
-      </c>
-      <c r="I15" s="18">
-        <v>46050</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="18">
-        <v>46059.628368055557</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="18">
-        <v>46046</v>
-      </c>
-      <c r="I16" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="18">
-        <v>46059.628564814811</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="18">
-        <v>46047</v>
-      </c>
-      <c r="I17" s="18">
-        <v>46053</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="18">
-        <v>46059.628472222219</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="18">
-        <v>46048</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="18">
-        <v>46059.628518518519</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="18">
-        <v>46049</v>
-      </c>
-      <c r="I19" s="18">
-        <v>46050</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="18">
-        <v>46050</v>
-      </c>
-      <c r="I20" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="18">
-        <v>46051</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="18">
-        <v>46059.628587962958</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="18">
-        <v>46059.628622685188</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="18">
-        <v>46053</v>
-      </c>
-      <c r="I23" s="18">
-        <v>46053</v>
-      </c>
-      <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="18">
-        <v>46054</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="18">
-        <v>46059.628692129627</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="18">
-        <v>46055</v>
-      </c>
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M25" s="18">
-        <v>46059.628761574073</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="18">
-        <v>46056</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="18">
-        <v>46059.628807870373</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="18">
-        <v>46057</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="18">
-        <v>46059.628877314812</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="18">
-        <v>46058</v>
-      </c>
-      <c r="I28" s="18">
-        <v>46175</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="18">
-        <v>46059</v>
-      </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="18">
-        <v>46059.628935185188</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="18">
-        <v>46060</v>
-      </c>
-      <c r="I30" s="18">
-        <v>46236</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="18">
-        <v>46061</v>
-      </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="18">
-        <v>46059.628969907397</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18">
-        <v>46062</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="18">
-        <v>46059.629004629627</v>
-      </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="18">
-        <v>46063</v>
-      </c>
-      <c r="I33" s="18">
-        <v>46297</v>
-      </c>
-      <c r="J33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="18">
-        <v>46064</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="18">
-        <v>46059.629074074073</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="18">
-        <v>46065</v>
-      </c>
-      <c r="J35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="18">
-        <v>46059.629155092603</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="G52" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="25">
+        <v>46081</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="L52" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="18">
-        <v>46066</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36" t="s">
-        <v>135</v>
-      </c>
-      <c r="M36" s="18">
-        <v>46059.629189814812</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="18">
-        <v>46067</v>
-      </c>
-      <c r="J37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="18">
-        <v>46059.629259259258</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="18">
-        <v>46068</v>
-      </c>
-      <c r="I38" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38" t="s">
-        <v>135</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="18">
-        <v>46069</v>
-      </c>
-      <c r="I39" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L39" t="s">
-        <v>135</v>
-      </c>
-      <c r="M39" s="18">
-        <v>46059.629293981481</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="18">
-        <v>46070</v>
-      </c>
-      <c r="I40" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40" t="s">
-        <v>135</v>
-      </c>
-      <c r="M40" s="18">
-        <v>46059.629340277781</v>
-      </c>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="18">
-        <v>46071</v>
-      </c>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" t="s">
-        <v>134</v>
-      </c>
-      <c r="L41" t="s">
-        <v>135</v>
-      </c>
-      <c r="M41" s="18">
-        <v>46059.62940972222</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="18">
-        <v>46072</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>134</v>
-      </c>
-      <c r="L42" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" s="18">
-        <v>46059.62945601852</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="18">
-        <v>46073</v>
-      </c>
-      <c r="J43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" t="s">
-        <v>134</v>
-      </c>
-      <c r="L43" t="s">
-        <v>135</v>
-      </c>
-      <c r="M43" s="18">
-        <v>46059.629537037043</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="18">
-        <v>46074</v>
-      </c>
-      <c r="I44" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>134</v>
-      </c>
-      <c r="L44" t="s">
-        <v>135</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="18">
-        <v>46075</v>
-      </c>
-      <c r="I45" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J45" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" t="s">
-        <v>163</v>
-      </c>
-      <c r="L45" t="s">
-        <v>164</v>
-      </c>
-      <c r="M45" s="18">
-        <v>46059.629571759258</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="18">
-        <v>46076</v>
-      </c>
-      <c r="I46" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="s">
-        <v>163</v>
-      </c>
-      <c r="L46" t="s">
-        <v>164</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>169</v>
-      </c>
-      <c r="H47" s="18">
-        <v>46077</v>
-      </c>
-      <c r="J47" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" t="s">
-        <v>163</v>
-      </c>
-      <c r="L47" t="s">
-        <v>164</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="18">
-        <v>46078</v>
-      </c>
-      <c r="I48" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" t="s">
-        <v>163</v>
-      </c>
-      <c r="L48" t="s">
-        <v>164</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="18">
-        <v>46079</v>
-      </c>
-      <c r="I49" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J49" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" t="s">
-        <v>163</v>
-      </c>
-      <c r="L49" t="s">
-        <v>164</v>
-      </c>
-      <c r="M49" s="18">
-        <v>46059.629675925928</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="18">
-        <v>46080</v>
-      </c>
-      <c r="I50" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s">
-        <v>164</v>
-      </c>
-      <c r="M50" s="18">
-        <v>46059.62972222222</v>
-      </c>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="18">
-        <v>46081</v>
-      </c>
-      <c r="J51" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="18">
-        <v>46059.629803240743</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="18">
-        <v>46081</v>
-      </c>
-      <c r="J52" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" t="s">
-        <v>163</v>
-      </c>
-      <c r="L52" t="s">
-        <v>164</v>
-      </c>
-      <c r="M52" s="18">
-        <v>46059.629861111112</v>
-      </c>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>188</v>
-      </c>
+      <c r="M52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3950,60 +3596,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5">
         <v>25569.229699293981</v>
@@ -4012,22 +3658,22 @@
         <v>1500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J2" s="7">
         <v>25569.22969965278</v>
@@ -4039,7 +3685,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P2" s="7">
         <v>25569.229699293981</v>
@@ -4050,7 +3696,7 @@
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B3" s="5">
         <v>25569.229699305561</v>
@@ -4061,32 +3707,32 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J3" s="7">
         <v>25569.229699664349</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P3" s="7">
         <v>25569.229699305561</v>
@@ -4097,7 +3743,7 @@
     </row>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B4" s="5">
         <v>25569.229699317129</v>
@@ -4106,22 +3752,22 @@
         <v>3200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J4" s="7">
         <v>25569.229699675929</v>
@@ -4131,7 +3777,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7">
         <v>25569.229699317129</v>
@@ -4142,7 +3788,7 @@
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5">
         <v>25569.229699328709</v>
@@ -4153,16 +3799,16 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J5" s="7">
         <v>25569.229699687501</v>
@@ -4171,16 +3817,16 @@
         <v>25569.229699479161</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7">
         <v>25569.229699328709</v>
@@ -4191,7 +3837,7 @@
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5">
         <v>25569.229699340282</v>
@@ -4200,22 +3846,22 @@
         <v>2100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J6" s="7">
         <v>25569.22969969907</v>
@@ -4225,7 +3871,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7">
         <v>25569.229699340282</v>
@@ -4236,7 +3882,7 @@
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5">
         <v>25569.22969935185</v>
@@ -4247,32 +3893,32 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J7" s="7">
         <v>25569.229699872689</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7">
         <v>25569.22969935185</v>
@@ -4283,7 +3929,7 @@
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5">
         <v>25569.22969936343</v>
@@ -4292,22 +3938,22 @@
         <v>1950</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J8" s="7">
         <v>25569.229699884261</v>
@@ -4317,7 +3963,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7">
         <v>25569.22969936343</v>
@@ -4328,7 +3974,7 @@
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B9" s="5">
         <v>25569.229699374999</v>
@@ -4339,16 +3985,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J9" s="7">
         <v>25569.22969989583</v>
@@ -4357,16 +4003,16 @@
         <v>25569.229699513889</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7">
         <v>25569.229699374999</v>
@@ -4377,7 +4023,7 @@
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B10" s="5">
         <v>25569.229699386571</v>
@@ -4386,22 +4032,22 @@
         <v>3100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J10" s="7">
         <v>25569.22969990741</v>
@@ -4411,7 +4057,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7">
         <v>25569.229699386571</v>
@@ -4422,7 +4068,7 @@
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B11" s="5">
         <v>25569.229699398151</v>
@@ -4433,16 +4079,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J11" s="7">
         <v>25569.229699918978</v>
@@ -4451,16 +4097,16 @@
         <v>25569.229699525458</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7">
         <v>25569.229699398151</v>
@@ -4471,7 +4117,7 @@
     </row>
     <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B12" s="10">
         <v>25569.22970143519</v>
@@ -4480,22 +4126,22 @@
         <v>1800</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J12" s="7">
         <v>25569.229701099539</v>
@@ -4505,7 +4151,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P12" s="13">
         <v>25569.22970143519</v>
@@ -4516,7 +4162,7 @@
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B13" s="10">
         <v>25569.229701793982</v>
@@ -4527,32 +4173,32 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J13" s="7">
         <v>25569.229699942131</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="9" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P13" s="13">
         <v>25569.229701793982</v>
@@ -4563,7 +4209,7 @@
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B14" s="10">
         <v>25569.229702152781</v>
@@ -4572,22 +4218,22 @@
         <v>3100</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J14" s="7">
         <v>25569.229699780091</v>
@@ -4599,7 +4245,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P14" s="13">
         <v>25569.229702152781</v>
@@ -4610,7 +4256,7 @@
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B15" s="10">
         <v>25569.229702500001</v>
@@ -4621,32 +4267,32 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J15" s="7">
         <v>25569.229699791671</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="9" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P15" s="13">
         <v>25569.229702500001</v>
@@ -4657,7 +4303,7 @@
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B16" s="10">
         <v>25569.2297028588</v>
@@ -4666,22 +4312,22 @@
         <v>2750</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J16" s="7">
         <v>25569.229699976851</v>
@@ -4691,7 +4337,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P16" s="13">
         <v>25569.2297028588</v>
@@ -4702,7 +4348,7 @@
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B17" s="10">
         <v>25569.22970320602</v>
@@ -4713,32 +4359,32 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J17" s="7">
         <v>25569.229699814819</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="9" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="P17" s="13">
         <v>25569.22970320602</v>
@@ -4749,7 +4395,7 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B18" s="13">
         <v>25569.229699479161</v>
@@ -4758,22 +4404,22 @@
         <v>2400</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J18" s="7">
         <v>25569.229699826388</v>
@@ -4783,7 +4429,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P18" s="13">
         <v>25569.229699479161</v>
@@ -4794,7 +4440,7 @@
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B19" s="13">
         <v>25569.229699490741</v>
@@ -4805,32 +4451,32 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J19" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="9" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P19" s="13">
         <v>25569.229699490741</v>
@@ -4841,7 +4487,7 @@
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B20" s="13">
         <v>25569.22969950231</v>
@@ -4850,22 +4496,22 @@
         <v>3250</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J20" s="7">
         <v>25569.22969984954</v>
@@ -4877,7 +4523,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P20" s="13">
         <v>25569.22969950231</v>
@@ -4888,7 +4534,7 @@
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B21" s="13">
         <v>25569.229699513889</v>
@@ -4899,32 +4545,32 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J21" s="7">
         <v>25569.229699861109</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="9" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P21" s="13">
         <v>25569.229699513889</v>
@@ -4935,7 +4581,7 @@
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B22" s="13">
         <v>25569.229699525458</v>
@@ -4944,22 +4590,22 @@
         <v>2800</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J22" s="7">
         <v>25569.229699872689</v>
@@ -4969,7 +4615,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P22" s="13">
         <v>25569.229699525458</v>
@@ -4980,7 +4626,7 @@
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B23" s="13">
         <v>25569.229699537042</v>
@@ -4991,32 +4637,32 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J23" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="9" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P23" s="13">
         <v>25569.229699537042</v>
@@ -5027,7 +4673,7 @@
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B24" s="13">
         <v>25569.22969954861</v>
@@ -5036,22 +4682,22 @@
         <v>3300</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J24" s="7">
         <v>25569.229700254629</v>
@@ -5061,7 +4707,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P24" s="13">
         <v>25569.22969954861</v>
@@ -5072,7 +4718,7 @@
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B25" s="13">
         <v>25569.22969956019</v>
@@ -5083,32 +4729,32 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J25" s="7">
         <v>25569.22969990741</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="9" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P25" s="13">
         <v>25569.22969956019</v>
@@ -5119,7 +4765,7 @@
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B26" s="13">
         <v>25569.229699571759</v>
@@ -5128,22 +4774,22 @@
         <v>2650</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J26" s="7">
         <v>25569.229699918978</v>
@@ -5153,7 +4799,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P26" s="13">
         <v>25569.229699571759</v>
@@ -5164,7 +4810,7 @@
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B27" s="13">
         <v>25569.229699583331</v>
@@ -5175,32 +4821,32 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J27" s="7">
         <v>25569.229699930551</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="9" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="P27" s="13">
         <v>25569.229699583331</v>
@@ -5211,7 +4857,7 @@
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B28" s="13">
         <v>25569.229699594911</v>
@@ -5220,22 +4866,22 @@
         <v>3000</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J28" s="7">
         <v>25569.229699942131</v>
@@ -5247,7 +4893,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P28" s="13">
         <v>25569.229699594911</v>
@@ -5258,7 +4904,7 @@
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B29" s="13">
         <v>25569.22969960648</v>
@@ -5269,32 +4915,32 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J29" s="7">
         <v>25569.229700127311</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="9" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P29" s="13">
         <v>25569.22969960648</v>
@@ -5305,7 +4951,7 @@
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="B30" s="13">
         <v>25569.229699618059</v>
@@ -5314,22 +4960,22 @@
         <v>3450</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J30" s="7">
         <v>25569.229699965279</v>
@@ -5341,7 +4987,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P30" s="13">
         <v>25569.229699618059</v>
@@ -5352,7 +4998,7 @@
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="B31" s="13">
         <v>25569.229699629632</v>
@@ -5363,32 +5009,32 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J31" s="7">
         <v>25569.229699976851</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="9" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P31" s="13">
         <v>25569.229699629632</v>
@@ -5399,7 +5045,7 @@
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="B32" s="13">
         <v>25569.229699641201</v>
@@ -5408,22 +5054,22 @@
         <v>2900</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J32" s="7">
         <v>25569.229699988431</v>
@@ -5433,7 +5079,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P32" s="13">
         <v>25569.229699641201</v>
@@ -5444,7 +5090,7 @@
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="B33" s="13">
         <v>25569.22969965278</v>
@@ -5455,32 +5101,32 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J33" s="7">
         <v>25569.229700173611</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="9" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P33" s="13">
         <v>25569.22969965278</v>
@@ -5491,7 +5137,7 @@
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B34" s="13">
         <v>25569.229699664349</v>
@@ -5500,22 +5146,22 @@
         <v>3300</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J34" s="7">
         <v>25569.229700358799</v>
@@ -5525,7 +5171,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P34" s="13">
         <v>25569.229699664349</v>
@@ -5536,7 +5182,7 @@
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="B35" s="13">
         <v>25569.229699675929</v>
@@ -5547,32 +5193,32 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J35" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="9" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P35" s="13">
         <v>25569.229699675929</v>
@@ -5583,7 +5229,7 @@
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="B36" s="13">
         <v>25569.229699687501</v>
@@ -5592,22 +5238,22 @@
         <v>2750</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J36" s="7">
         <v>25569.229700023148</v>
@@ -5617,7 +5263,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P36" s="13">
         <v>25569.229699687501</v>
@@ -5628,7 +5274,7 @@
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="B37" s="10">
         <v>25569.22969935185</v>
@@ -5639,32 +5285,32 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J37" s="7">
         <v>25569.229700034721</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="9" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P37" s="13">
         <v>25569.22969935185</v>
@@ -5675,7 +5321,7 @@
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B38" s="10">
         <v>25569.22969971065</v>
@@ -5684,22 +5330,22 @@
         <v>3450</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J38" s="7">
         <v>25569.2297000463</v>
@@ -5711,7 +5357,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P38" s="13">
         <v>25569.22969971065</v>
@@ -5722,7 +5368,7 @@
     </row>
     <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B39" s="10">
         <v>25569.229700034721</v>
@@ -5733,32 +5379,32 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J39" s="7">
         <v>25569.229700219908</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="9" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P39" s="13">
         <v>25569.229700034721</v>
@@ -5769,7 +5415,7 @@
     </row>
     <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="B40" s="10">
         <v>25569.22970039352</v>
@@ -5778,22 +5424,22 @@
         <v>3100</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J40" s="7">
         <v>25569.229700069449</v>
@@ -5803,7 +5449,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P40" s="13">
         <v>25569.22970039352</v>
@@ -5814,7 +5460,7 @@
     </row>
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B41" s="10">
         <v>25569.22970074074</v>
@@ -5825,32 +5471,32 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J41" s="7">
         <v>25569.229700081021</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="9" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P41" s="13">
         <v>25569.22970074074</v>
@@ -5861,7 +5507,7 @@
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="B42" s="10">
         <v>25569.229701099539</v>
@@ -5870,22 +5516,22 @@
         <v>2850</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J42" s="7">
         <v>25569.22970009259</v>
@@ -5895,7 +5541,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P42" s="13">
         <v>25569.229701099539</v>
@@ -5906,7 +5552,7 @@
     </row>
     <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B43" s="10">
         <v>25569.229701446759</v>
@@ -5917,32 +5563,32 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="J43" s="7">
         <v>25569.22970028935</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="9" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P43" s="13">
         <v>25569.229701446759</v>
@@ -5953,7 +5599,7 @@
     </row>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B44" s="10">
         <v>25569.229701805551</v>
@@ -5962,22 +5608,22 @@
         <v>3200</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J44" s="7">
         <v>25569.229700358799</v>
@@ -5989,7 +5635,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P44" s="13">
         <v>25569.229701805551</v>
@@ -6000,7 +5646,7 @@
     </row>
     <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="B45" s="10">
         <v>25569.22970216435</v>
@@ -6011,32 +5657,32 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J45" s="7">
         <v>25569.229700138891</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="9" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P45" s="13">
         <v>25569.22970216435</v>
@@ -6047,7 +5693,7 @@
     </row>
     <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="B46" s="10">
         <v>25569.229702511569</v>
@@ -6056,22 +5702,22 @@
         <v>3100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J46" s="7">
         <v>25569.229700370372</v>
@@ -6081,7 +5727,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P46" s="13">
         <v>25569.229702511569</v>
@@ -6092,7 +5738,7 @@
     </row>
     <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10">
         <v>25569.229702870369</v>
@@ -6103,32 +5749,32 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J47" s="7">
         <v>25569.229700162039</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="9" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="P47" s="13">
         <v>25569.229702870369</v>
@@ -6139,7 +5785,7 @@
     </row>
     <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="B48" s="10">
         <v>25569.229703217588</v>
@@ -6148,22 +5794,22 @@
         <v>2750</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J48" s="7">
         <v>25569.229700162039</v>
@@ -6175,7 +5821,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P48" s="13">
         <v>25569.229703217588</v>
@@ -6186,7 +5832,7 @@
     </row>
     <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="B49" s="13">
         <v>25569.229699837961</v>
@@ -6197,32 +5843,32 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J49" s="7">
         <v>25569.22970018518</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="9" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P49" s="13">
         <v>25569.229699837961</v>
@@ -6233,7 +5879,7 @@
     </row>
     <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="B50" s="13">
         <v>25569.22969984954</v>
@@ -6242,22 +5888,22 @@
         <v>3150</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J50" s="7">
         <v>25569.22970019676</v>
@@ -6267,7 +5913,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P50" s="13">
         <v>25569.22969984954</v>
@@ -6278,7 +5924,7 @@
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="B51" s="13">
         <v>25569.229699861109</v>
@@ -6289,32 +5935,32 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J51" s="7">
         <v>25569.229700208329</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="9" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P51" s="13">
         <v>25569.229699861109</v>

--- a/data/QMT Data New.xlsx
+++ b/data/QMT Data New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\-Query-Management-Agent\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansur\OneDrive\Desktop\EY Project\-Query-Management-Agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9B0238-E43E-4AB8-8EDD-4B564A5B942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D42C9-5839-4F98-B7C3-2DBEB18E88C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="355">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -59,15 +59,6 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>Ticket Updated Date</t>
-  </si>
-  <si>
-    <t>Auto Solved</t>
-  </si>
-  <si>
-    <t>AI Response</t>
-  </si>
-  <si>
     <t>TCK-1000</t>
   </si>
   <si>
@@ -128,412 +119,315 @@
     <t>PO Inquiry</t>
   </si>
   <si>
+    <t>TCK-1003</t>
+  </si>
+  <si>
+    <t>When is payment due for my invoice INV-2004?</t>
+  </si>
+  <si>
+    <t>Payment Due Inquiry</t>
+  </si>
+  <si>
+    <t>TCK-1004</t>
+  </si>
+  <si>
+    <t>Requesting clearing date for invoice INV-1005</t>
+  </si>
+  <si>
+    <t>Payment Clearing</t>
+  </si>
+  <si>
+    <t>TCK-1005</t>
+  </si>
+  <si>
+    <t>Invoice INV-2006 shows incorrect amount, please advise</t>
+  </si>
+  <si>
+    <t>Invoice Dispute</t>
+  </si>
+  <si>
+    <t>TCK-1006</t>
+  </si>
+  <si>
+    <t>Status update on invoice INV-1007 payment</t>
+  </si>
+  <si>
+    <t>Payment Inquiry</t>
+  </si>
+  <si>
+    <t>TCK-1007</t>
+  </si>
+  <si>
+    <t>Need confirmation of invoice INV-2008 posting</t>
+  </si>
+  <si>
+    <t>Invoice Confirmation</t>
+  </si>
+  <si>
+    <t>TCK-1008</t>
+  </si>
+  <si>
+    <t>Requesting payment confirmation for invoice INV-1009</t>
+  </si>
+  <si>
+    <t>Payment Confirmation</t>
+  </si>
+  <si>
+    <t>TCK-1009</t>
+  </si>
+  <si>
+    <t>When will my credit note CN-2010 be applied?</t>
+  </si>
+  <si>
+    <t>Credit Note Inquiry</t>
+  </si>
+  <si>
+    <t>TCK-1010</t>
+  </si>
+  <si>
+    <t>Requesting invoice INV-1010 status update</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>USR-002</t>
+  </si>
+  <si>
+    <t>Michael Green</t>
+  </si>
+  <si>
+    <t>TCK-1011</t>
+  </si>
+  <si>
+    <t>Can I get invoice INV-2011 corrected?</t>
+  </si>
+  <si>
+    <t>TCK-1012</t>
+  </si>
+  <si>
+    <t>When will payment for invoice INV-1012 be made?</t>
+  </si>
+  <si>
+    <t>TCK-1013</t>
+  </si>
+  <si>
+    <t>Need details of invoice INV-2013</t>
+  </si>
+  <si>
+    <t>TCK-1014</t>
+  </si>
+  <si>
+    <t>Confirm PO PO-5015 approval</t>
+  </si>
+  <si>
+    <t>TCK-1015</t>
+  </si>
+  <si>
+    <t>When is payment due for INV-2015?</t>
+  </si>
+  <si>
+    <t>TCK-1016</t>
+  </si>
+  <si>
+    <t>Request clearing date for INV-1016</t>
+  </si>
+  <si>
+    <t>TCK-1017</t>
+  </si>
+  <si>
+    <t>Payment confirmation for INV-2017 needed</t>
+  </si>
+  <si>
+    <t>TCK-1018</t>
+  </si>
+  <si>
+    <t>Status of invoice INV-1018 payment?</t>
+  </si>
+  <si>
+    <t>TCK-1019</t>
+  </si>
+  <si>
+    <t>Can credit note CN-2020 be applied?</t>
+  </si>
+  <si>
+    <t>TCK-1020</t>
+  </si>
+  <si>
+    <t>Requesting payment date for INV-1020</t>
+  </si>
+  <si>
+    <t>TCK-1021</t>
+  </si>
+  <si>
+    <t>Request details of invoice INV-2021</t>
+  </si>
+  <si>
+    <t>TCK-1022</t>
+  </si>
+  <si>
+    <t>Confirm PO PO-5023 approval status</t>
+  </si>
+  <si>
+    <t>USR-003</t>
+  </si>
+  <si>
+    <t>Laura Scott</t>
+  </si>
+  <si>
+    <t>TCK-1023</t>
+  </si>
+  <si>
+    <t>Payment due date for INV-2023?</t>
+  </si>
+  <si>
+    <t>TCK-1024</t>
+  </si>
+  <si>
+    <t>Request clearing date for INV-1024</t>
+  </si>
+  <si>
+    <t>TCK-1025</t>
+  </si>
+  <si>
+    <t>When will credit note CN-2025 be applied?</t>
+  </si>
+  <si>
+    <t>TCK-1026</t>
+  </si>
+  <si>
+    <t>Payment confirmation for INV-1026 required</t>
+  </si>
+  <si>
+    <t>TCK-1027</t>
+  </si>
+  <si>
+    <t>Request invoice INV-2027 correction</t>
+  </si>
+  <si>
+    <t>TCK-1028</t>
+  </si>
+  <si>
+    <t>Status of invoice INV-1028 payment?</t>
+  </si>
+  <si>
+    <t>TCK-1029</t>
+  </si>
+  <si>
+    <t>Need payment confirmation for INV-2029</t>
+  </si>
+  <si>
+    <t>TCK-1030</t>
+  </si>
+  <si>
+    <t>Requesting status update for INV-1030</t>
+  </si>
+  <si>
+    <t>USR-006</t>
+  </si>
+  <si>
+    <t>Alicia Brown</t>
+  </si>
+  <si>
+    <t>TCK-1031</t>
+  </si>
+  <si>
+    <t>Can I get details of invoice INV-2031?</t>
+  </si>
+  <si>
+    <t>TCK-1032</t>
+  </si>
+  <si>
+    <t>Please confirm PO PO-5033 approval</t>
+  </si>
+  <si>
+    <t>TCK-1033</t>
+  </si>
+  <si>
+    <t>When is payment due for invoice INV-2033?</t>
+  </si>
+  <si>
+    <t>TCK-1034</t>
+  </si>
+  <si>
+    <t>Request clearing date for INV-1034</t>
+  </si>
+  <si>
+    <t>USR-004</t>
+  </si>
+  <si>
+    <t>Kevin Hall</t>
+  </si>
+  <si>
+    <t>TCK-1035</t>
+  </si>
+  <si>
+    <t>Payment confirmation for INV-2035 needed</t>
+  </si>
+  <si>
+    <t>TCK-1036</t>
+  </si>
+  <si>
+    <t>Status update on invoice INV-1036 payment</t>
+  </si>
+  <si>
+    <t>TCK-1037</t>
+  </si>
+  <si>
+    <t>Request invoice INV-2037 correction</t>
+  </si>
+  <si>
+    <t>TCK-1038</t>
+  </si>
+  <si>
+    <t>Payment confirmation for INV-1038 required</t>
+  </si>
+  <si>
+    <t>TCK-1039</t>
+  </si>
+  <si>
+    <t>When will credit note CN-2039 be applied?</t>
+  </si>
+  <si>
+    <t>TCK-1040</t>
+  </si>
+  <si>
+    <t>Can you provide the discrepancy details for INV-1040?</t>
+  </si>
+  <si>
+    <t>TCK-1041</t>
+  </si>
+  <si>
+    <t>How can I apply a partial payment for INV-2041?</t>
+  </si>
+  <si>
+    <t>Payment Application</t>
+  </si>
+  <si>
+    <t>TCK-1042</t>
+  </si>
+  <si>
+    <t>What is the tax adjustment applied to INV-1042?</t>
+  </si>
+  <si>
+    <t>Tax Inquiry</t>
+  </si>
+  <si>
+    <t>TCK-1043</t>
+  </si>
+  <si>
+    <t>Can you confirm if INV-2043 includes late fees?</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Alicia Brown</t>
-  </si>
-  <si>
-    <t>PO PO-5003 status is 'Pending' and has not yet been approved.</t>
-  </si>
-  <si>
-    <t>TCK-1003</t>
-  </si>
-  <si>
-    <t>When is payment due for my invoice INV-2004?</t>
-  </si>
-  <si>
-    <t>Payment Due Inquiry</t>
-  </si>
-  <si>
-    <t>TCK-1004</t>
-  </si>
-  <si>
-    <t>Requesting clearing date for invoice INV-1005</t>
-  </si>
-  <si>
-    <t>Payment Clearing</t>
-  </si>
-  <si>
-    <t>Pending Manager Approval</t>
-  </si>
-  <si>
-    <t>The clearing date for invoice INV-1005 is not available in the database (Clearing Date: NaT).</t>
-  </si>
-  <si>
-    <t>TCK-1005</t>
-  </si>
-  <si>
-    <t>Invoice INV-2006 shows incorrect amount, please advise</t>
-  </si>
-  <si>
-    <t>Invoice Dispute</t>
-  </si>
-  <si>
-    <t>TCK-1006</t>
-  </si>
-  <si>
-    <t>Status update on invoice INV-1007 payment</t>
-  </si>
-  <si>
-    <t>Payment Inquiry</t>
-  </si>
-  <si>
-    <t>Invoice INV-1007 is currently Unpaid. The PO status is Pending. Payment Term is Net 60, and the due date is 1970-01-01. Clearing date is not available.</t>
-  </si>
-  <si>
-    <t>TCK-1007</t>
-  </si>
-  <si>
-    <t>Need confirmation of invoice INV-2008 posting</t>
-  </si>
-  <si>
-    <t>Invoice Confirmation</t>
-  </si>
-  <si>
-    <t>TCK-1008</t>
-  </si>
-  <si>
-    <t>Requesting payment confirmation for invoice INV-1009</t>
-  </si>
-  <si>
-    <t>Payment Confirmation</t>
-  </si>
-  <si>
-    <t>Laura Scott</t>
-  </si>
-  <si>
-    <t>Invoice INV-1009 is Paid. However, the clearing date is not available in the records.</t>
-  </si>
-  <si>
-    <t>TCK-1009</t>
-  </si>
-  <si>
-    <t>When will my credit note CN-2010 be applied?</t>
-  </si>
-  <si>
-    <t>Credit Note Inquiry</t>
-  </si>
-  <si>
-    <t>TCK-1010</t>
-  </si>
-  <si>
-    <t>Requesting invoice INV-1010 status update</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>USR-002</t>
-  </si>
-  <si>
-    <t>Kevin Hall</t>
-  </si>
-  <si>
-    <t>Invoice INV-1010 is currently Unpaid. The PO status is Approved. The due date is 1970-01-01. No clearing date is available yet.</t>
-  </si>
-  <si>
-    <t>TCK-1011</t>
-  </si>
-  <si>
-    <t>Can I get invoice INV-2011 corrected?</t>
+    <t>USR-005</t>
   </si>
   <si>
     <t>Grace Taylor</t>
   </si>
   <si>
-    <t>Invoice INV-2011 is currently Unpaid and associated with PO-5012 (Approved). Please specify what needs to be corrected on the invoice so we can assist further.</t>
-  </si>
-  <si>
-    <t>TCK-1012</t>
-  </si>
-  <si>
-    <t>When will payment for invoice INV-1012 be made?</t>
-  </si>
-  <si>
-    <t>Michael Green</t>
-  </si>
-  <si>
-    <t>TCK-1013</t>
-  </si>
-  <si>
-    <t>Need details of invoice INV-2013</t>
-  </si>
-  <si>
-    <t>Invoice INV-2013 details:
-- Invoice Date: 1970-01-01
-- Invoice Amount: 1450
-- PO Number: PO-5014 (Status: Approved)
-- Payment Status: Unpaid (Payment Term: Net 30)
-- Due Date: 1970-01-01
-- Customer: Epsilon Corp (ID: CUS-014, Country: Germany)
-If you need further information or clarification, please let me know.</t>
-  </si>
-  <si>
-    <t>TCK-1014</t>
-  </si>
-  <si>
-    <t>Confirm PO PO-5015 approval</t>
-  </si>
-  <si>
-    <t>PO PO-5015 status is Pending and has not yet been approved.</t>
-  </si>
-  <si>
-    <t>TCK-1015</t>
-  </si>
-  <si>
-    <t>When is payment due for INV-2015?</t>
-  </si>
-  <si>
-    <t>The payment for invoice INV-2015 is due on 1970-01-01.</t>
-  </si>
-  <si>
-    <t>TCK-1016</t>
-  </si>
-  <si>
-    <t>Request clearing date for INV-1016</t>
-  </si>
-  <si>
-    <t>Invoice INV-1016 is marked as Paid, but the Clearing Date is not available in the database.</t>
-  </si>
-  <si>
-    <t>TCK-1017</t>
-  </si>
-  <si>
-    <t>Payment confirmation for INV-2017 needed</t>
-  </si>
-  <si>
-    <t>TCK-1018</t>
-  </si>
-  <si>
-    <t>Status of invoice INV-1018 payment?</t>
-  </si>
-  <si>
-    <t>TCK-1019</t>
-  </si>
-  <si>
-    <t>Can credit note CN-2020 be applied?</t>
-  </si>
-  <si>
-    <t>Credit note CN-2020 is available and is currently Unpaid. It can be applied to invoices for Theta Ltd as per usual process.</t>
-  </si>
-  <si>
-    <t>TCK-1020</t>
-  </si>
-  <si>
-    <t>Requesting payment date for INV-1020</t>
-  </si>
-  <si>
-    <t>Invoice INV-1020 not found in the database. Please verify the invoice number or provide additional details.</t>
-  </si>
-  <si>
-    <t>TCK-1021</t>
-  </si>
-  <si>
-    <t>Request details of invoice INV-2021</t>
-  </si>
-  <si>
-    <t>TCK-1022</t>
-  </si>
-  <si>
-    <t>Confirm PO PO-5023 approval status</t>
-  </si>
-  <si>
-    <t>USR-003</t>
-  </si>
-  <si>
-    <t>The approval status for PO PO-5023 is 'Pending'.</t>
-  </si>
-  <si>
-    <t>TCK-1023</t>
-  </si>
-  <si>
-    <t>Payment due date for INV-2023?</t>
-  </si>
-  <si>
-    <t>The payment due date for invoice INV-2023 is 1970-01-01.</t>
-  </si>
-  <si>
-    <t>TCK-1024</t>
-  </si>
-  <si>
-    <t>Request clearing date for INV-1024</t>
-  </si>
-  <si>
-    <t>Invoice INV-1024 payment status is Paid, but the clearing date is not available in the database.</t>
-  </si>
-  <si>
-    <t>TCK-1025</t>
-  </si>
-  <si>
-    <t>When will credit note CN-2025 be applied?</t>
-  </si>
-  <si>
-    <t>Credit note CN-2025 has not yet been applied (Payment Status: Unpaid). There is currently no clearing date available.</t>
-  </si>
-  <si>
-    <t>TCK-1026</t>
-  </si>
-  <si>
-    <t>Payment confirmation for INV-1026 required</t>
-  </si>
-  <si>
-    <t>TCK-1027</t>
-  </si>
-  <si>
-    <t>Request invoice INV-2027 correction</t>
-  </si>
-  <si>
-    <t>Invoice INV-2027 details found: Amount is 2100 USD, linked to PO-5028 (Approved), payment status is Unpaid. Please specify what correction is required for this invoice (amount, date, vendor details, etc.), so the request can be processed further.</t>
-  </si>
-  <si>
-    <t>TCK-1028</t>
-  </si>
-  <si>
-    <t>Status of invoice INV-1028 payment?</t>
-  </si>
-  <si>
-    <t>TCK-1029</t>
-  </si>
-  <si>
-    <t>Need payment confirmation for INV-2029</t>
-  </si>
-  <si>
-    <t>Invoice INV-2029 is currently Unpaid. No payment has been cleared for this invoice yet.</t>
-  </si>
-  <si>
-    <t>TCK-1030</t>
-  </si>
-  <si>
-    <t>Requesting status update for INV-1030</t>
-  </si>
-  <si>
-    <t>USR-006</t>
-  </si>
-  <si>
-    <t>Invoice INV-1030 is currently Unpaid. The PO (PO-5031) is Approved. The invoice amount is $2,900, and it is due based on Net 30 terms.</t>
-  </si>
-  <si>
-    <t>TCK-1031</t>
-  </si>
-  <si>
-    <t>Can I get details of invoice INV-2031?</t>
-  </si>
-  <si>
-    <t>TCK-1032</t>
-  </si>
-  <si>
-    <t>Please confirm PO PO-5033 approval</t>
-  </si>
-  <si>
-    <t>PO PO-5033 status is 'Pending' and has not yet been approved.</t>
-  </si>
-  <si>
-    <t>TCK-1033</t>
-  </si>
-  <si>
-    <t>When is payment due for invoice INV-2033?</t>
-  </si>
-  <si>
-    <t>The payment for invoice INV-2033 is due on 1970-01-01.</t>
-  </si>
-  <si>
-    <t>TCK-1034</t>
-  </si>
-  <si>
-    <t>Request clearing date for INV-1034</t>
-  </si>
-  <si>
-    <t>USR-004</t>
-  </si>
-  <si>
-    <t>Invoice INV-1034 does not have a clearing date recorded in the database.</t>
-  </si>
-  <si>
-    <t>TCK-1035</t>
-  </si>
-  <si>
-    <t>Payment confirmation for INV-2035 needed</t>
-  </si>
-  <si>
-    <t>Invoice INV-2035 is Unpaid. Payment has not been cleared yet.</t>
-  </si>
-  <si>
-    <t>TCK-1036</t>
-  </si>
-  <si>
-    <t>Status update on invoice INV-1036 payment</t>
-  </si>
-  <si>
-    <t>TCK-1037</t>
-  </si>
-  <si>
-    <t>Request invoice INV-2037 correction</t>
-  </si>
-  <si>
-    <t>Invoice INV-2037 is found for Sigma LLC (Amount: 2250, PO-5038, Payment Status: Unpaid). For correction, please specify the details that need to be amended (e.g., amount, date, customer, PO info, etc.).</t>
-  </si>
-  <si>
-    <t>TCK-1038</t>
-  </si>
-  <si>
-    <t>Payment confirmation for INV-1038 required</t>
-  </si>
-  <si>
-    <t>Invoice INV-1038 is Paid. Please note that the clearing date is not available in the system. If you need further details, let us know.</t>
-  </si>
-  <si>
-    <t>TCK-1039</t>
-  </si>
-  <si>
-    <t>When will credit note CN-2039 be applied?</t>
-  </si>
-  <si>
-    <t>Credit note CN-2039 for Theta Ltd has not yet been applied. The payment status is 'Unpaid', and there is no clearing date recorded.</t>
-  </si>
-  <si>
-    <t>TCK-1040</t>
-  </si>
-  <si>
-    <t>Can you provide the discrepancy details for INV-1040?</t>
-  </si>
-  <si>
-    <t>Invoice INV-1040 details: Vendor: Horizon Supplies, Invoice Amount: $2,850, PO Number: PO-5041 (Approved), Payment Status: Unpaid. No discrepancy information is available in the database for this invoice. If you require specific discrepancy types (e.g., amount, PO, payment), please clarify.</t>
-  </si>
-  <si>
-    <t>TCK-1041</t>
-  </si>
-  <si>
-    <t>How can I apply a partial payment for INV-2041?</t>
-  </si>
-  <si>
-    <t>Payment Application</t>
-  </si>
-  <si>
-    <t>Invoice INV-2041 for Omega LLC is currently Unpaid. To apply a partial payment, you will need to process the payment through your usual finance or accounting system, specifying the amount to be paid. If your ERP or payment portal supports partial payments, simply enter the partial amount against INV-2041. The remaining balance will stay open until fully settled. If further assistance is needed with system-specific steps, please let me know.</t>
-  </si>
-  <si>
-    <t>TCK-1042</t>
-  </si>
-  <si>
-    <t>What is the tax adjustment applied to INV-1042?</t>
-  </si>
-  <si>
-    <t>Tax Inquiry</t>
-  </si>
-  <si>
-    <t>TCK-1043</t>
-  </si>
-  <si>
-    <t>Can you confirm if INV-2043 includes late fees?</t>
-  </si>
-  <si>
-    <t>USR-005</t>
-  </si>
-  <si>
-    <t>Invoice INV-2043 does not specify whether late fees are included. The available data only shows the invoice amount and payment status (Unpaid), but does not mention late fees. Please check the invoice document or contact the relevant department for confirmation.</t>
-  </si>
-  <si>
     <t>TCK-1044</t>
   </si>
   <si>
@@ -543,9 +437,6 @@
     <t>Payment Terms</t>
   </si>
   <si>
-    <t>Invoice INV-1044 from Stellar Supplies is currently unpaid and has a payment term of Net 60. While the database provides invoice and payment status, it does not store options for splitting payments into installments. Please contact your finance or accounts payable team to request a payment arrangement or installment plan for this invoice. If you need further assistance with invoice records, let me know.</t>
-  </si>
-  <si>
     <t>TCK-1045</t>
   </si>
   <si>
@@ -555,9 +446,6 @@
     <t>Discount Inquiry</t>
   </si>
   <si>
-    <t>Discounts typically cannot be directly applied through the invoice management system. Please contact your finance or accounts department to process a discount for Invoice INV-2045 ($2,000, PO-5046, Unpaid). If you need to update the invoice in the system, a credit note or adjustment may be required. Let me know if you need guidance on creating a credit note or adjustment.</t>
-  </si>
-  <si>
     <t>TCK-1046</t>
   </si>
   <si>
@@ -573,9 +461,6 @@
     <t>Can I request an early payment option for INV-2047?</t>
   </si>
   <si>
-    <t>Invoice INV-2047 is currently unpaid with a payment term of Net 30. You can request an early payment option for this invoice. Please contact the Accounts Payable team or your Sigma LLC representative to initiate the early payment process.</t>
-  </si>
-  <si>
     <t>TCK-1048</t>
   </si>
   <si>
@@ -585,10 +470,6 @@
     <t>Bank Details</t>
   </si>
   <si>
-    <t>I am unable to update or correct supplier bank details directly. My capabilities are limited to invoice status checks and providing invoice-related information. For bank detail corrections, please contact your finance or procurement team directly.
-Marking this ticket as auto_solved with 'Data not found in database' since bank detail update is not supported.</t>
-  </si>
-  <si>
     <t>TCK-1049</t>
   </si>
   <si>
@@ -598,13 +479,7 @@
     <t>Payment Dispute</t>
   </si>
   <si>
-    <t>Invoice INV-2049 is currently marked as overdue because its payment status is 'Unpaid' and the due date has passed. If you believe this is incorrect, please review the payment or clearing details in your records, as no clearing date is found in the database.</t>
-  </si>
-  <si>
     <t>TCK-1050</t>
-  </si>
-  <si>
-    <t>Invoice INV-2049 was marked as overdue because its payment status is 'Unpaid' and the due date has passed. If you believe this is incorrect, please check the payment records or provide more details. The invoice is still outstanding as per our database.</t>
   </si>
   <si>
     <t>Invoice Number</t>
@@ -1221,7 +1096,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,6 +1115,43 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
@@ -1289,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1339,7 +1251,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1646,26 +1589,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" customWidth="1"/>
+    <col min="8" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1678,7 +1612,7 @@
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1690,10 +1624,10 @@
       <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -1705,2237 +1639,1922 @@
       <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="24">
+        <v>46032</v>
+      </c>
+      <c r="I2" s="25">
+        <v>46034</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18">
-        <v>46032</v>
-      </c>
-      <c r="I2" s="18">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="24">
+        <v>46033</v>
+      </c>
+      <c r="I3" s="25">
+        <v>46033</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="24">
         <v>46034</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24">
+        <v>46035</v>
+      </c>
+      <c r="I5" s="25">
+        <v>46035</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="24">
+        <v>46036</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="24">
+        <v>46037</v>
+      </c>
+      <c r="I7" s="25">
+        <v>46036</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="24">
+        <v>46038</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24">
+        <v>46039</v>
+      </c>
+      <c r="I9" s="25">
+        <v>46038</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="24">
+        <v>46040</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="24">
+        <v>46041</v>
+      </c>
+      <c r="I11" s="25">
+        <v>46039</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="24">
+        <v>46042</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="24">
+        <v>46043</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="24">
+        <v>46044</v>
+      </c>
+      <c r="I14" s="29">
+        <v>46046</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="24">
+        <v>46045</v>
+      </c>
+      <c r="I15" s="29">
+        <v>46050</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G16" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="24">
+        <v>46046</v>
+      </c>
+      <c r="I16" s="29">
+        <v>46052</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="24">
+        <v>46047</v>
+      </c>
+      <c r="I17" s="29">
+        <v>46053</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="18">
-        <v>46033</v>
-      </c>
-      <c r="I3" s="18">
-        <v>46033</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="24">
+        <v>46048</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="24">
+        <v>46049</v>
+      </c>
+      <c r="I19" s="30">
+        <v>46050</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="24">
+        <v>46050</v>
+      </c>
+      <c r="I20" s="30">
+        <v>46052</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="24">
+        <v>46051</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="24">
+        <v>46052</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="24">
+        <v>46053</v>
+      </c>
+      <c r="I23" s="30">
+        <v>46053</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="24">
+        <v>46054</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="C25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="24">
+        <v>46055</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="24">
+        <v>46056</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="24">
+        <v>46057</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="24">
+        <v>46058</v>
+      </c>
+      <c r="I28" s="30">
+        <v>46175</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="24">
+        <v>46059</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="24">
+        <v>46060</v>
+      </c>
+      <c r="I30" s="30">
+        <v>46236</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="24">
+        <v>46061</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G32" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="24">
+        <v>46062</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="24">
+        <v>46063</v>
+      </c>
+      <c r="I33" s="30">
+        <v>46297</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="24">
+        <v>46064</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18">
-        <v>46034</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="24">
+        <v>46065</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="24">
+        <v>46066</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="18">
-        <v>46062.770439814813</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C37" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="24">
+        <v>46067</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="24">
+        <v>46068</v>
+      </c>
+      <c r="I38" s="24">
+        <v>46069</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G39" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="24">
+        <v>46069</v>
+      </c>
+      <c r="I39" s="24">
+        <v>46075</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="24">
+        <v>46070</v>
+      </c>
+      <c r="I40" s="24">
+        <v>46079</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="24">
+        <v>46071</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="18">
-        <v>46035</v>
-      </c>
-      <c r="I5" s="18">
-        <v>46035</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="F42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="24">
+        <v>46072</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D43" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="24">
+        <v>46073</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="24">
+        <v>46074</v>
+      </c>
+      <c r="I44" s="24">
+        <v>46069</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F45" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="18">
-        <v>46036</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G45" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="24">
+        <v>46075</v>
+      </c>
+      <c r="I45" s="24">
+        <v>46075</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="24">
+        <v>46076</v>
+      </c>
+      <c r="I46" s="24">
+        <v>46079</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="C47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="18">
-        <v>46062.74759259259</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D47" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="24">
+        <v>46077</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="24">
+        <v>46078</v>
+      </c>
+      <c r="I48" s="24">
+        <v>46069</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="18">
-        <v>46037</v>
-      </c>
-      <c r="I7" s="18">
-        <v>46036</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="G49" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="24">
+        <v>46079</v>
+      </c>
+      <c r="I49" s="24">
+        <v>46075</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="24">
+        <v>46080</v>
+      </c>
+      <c r="I50" s="24">
+        <v>46079</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="C51" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D51" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="18">
-        <v>46038</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="G51" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="24">
+        <v>46081</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="18">
-        <v>46062.747685185182</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="18">
-        <v>46039</v>
-      </c>
-      <c r="I9" s="18">
-        <v>46038</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="C52" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D52" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="18">
-        <v>46040</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="18">
-        <v>46062.747766203713</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18">
-        <v>46041</v>
-      </c>
-      <c r="I11" s="18">
-        <v>46039</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="18">
-        <v>46042</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="18">
-        <v>46062.747835648152</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="18">
-        <v>46043</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="18">
-        <v>46062.747916666667</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="18">
-        <v>46044</v>
-      </c>
-      <c r="I14" s="18">
-        <v>46046</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="18">
-        <v>46045</v>
-      </c>
-      <c r="I15" s="18">
-        <v>46050</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="18">
-        <v>46062.74796296296</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="18">
-        <v>46046</v>
-      </c>
-      <c r="I16" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="18">
-        <v>46062.747997685183</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="18">
-        <v>46047</v>
-      </c>
-      <c r="I17" s="18">
-        <v>46053</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="18">
-        <v>46062.748067129629</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="18">
-        <v>46048</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="18">
-        <v>46062.748124999998</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="18">
-        <v>46049</v>
-      </c>
-      <c r="I19" s="18">
-        <v>46050</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="18">
-        <v>46050</v>
-      </c>
-      <c r="I20" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="18">
-        <v>46051</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="18">
-        <v>46062.748194444437</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="18">
-        <v>46052</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="18">
-        <v>46062.748240740737</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="18">
-        <v>46053</v>
-      </c>
-      <c r="I23" s="18">
-        <v>46053</v>
-      </c>
-      <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="18">
-        <v>46054</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="18">
-        <v>46062.748310185183</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="18">
-        <v>46055</v>
-      </c>
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="18">
-        <v>46062.748391203713</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="18">
-        <v>46056</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="18">
-        <v>46062.748449074083</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="18">
-        <v>46057</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="18">
-        <v>46062.748518518521</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="18">
-        <v>46058</v>
-      </c>
-      <c r="I28" s="18">
-        <v>46175</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="18">
-        <v>46059</v>
-      </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="18">
-        <v>46062.748553240737</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="18">
-        <v>46060</v>
-      </c>
-      <c r="I30" s="18">
-        <v>46236</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="18">
-        <v>46061</v>
-      </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="18">
-        <v>46062.748599537037</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="18">
-        <v>46062</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" t="s">
-        <v>76</v>
-      </c>
-      <c r="M32" s="18">
-        <v>46062.770439814813</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="18">
-        <v>46063</v>
-      </c>
-      <c r="I33" s="18">
-        <v>46297</v>
-      </c>
-      <c r="J33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" t="s">
-        <v>126</v>
-      </c>
-      <c r="L33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="18">
-        <v>46064</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="18">
-        <v>46062.748726851853</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="G52" s="27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="H52" s="24">
+        <v>46081</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="L52" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="18">
-        <v>46065</v>
-      </c>
-      <c r="J35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" t="s">
-        <v>126</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="18">
-        <v>46062.748807870368</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="18">
-        <v>46066</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" t="s">
-        <v>138</v>
-      </c>
-      <c r="L36" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="18">
-        <v>46062.748842592591</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="18">
-        <v>46067</v>
-      </c>
-      <c r="J37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" t="s">
-        <v>68</v>
-      </c>
-      <c r="M37" s="18">
-        <v>46062.748923611107</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="18">
-        <v>46068</v>
-      </c>
-      <c r="I38" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="18">
-        <v>46069</v>
-      </c>
-      <c r="I39" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M39" s="18">
-        <v>46062.74895833333</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="18">
-        <v>46070</v>
-      </c>
-      <c r="I40" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
-        <v>138</v>
-      </c>
-      <c r="L40" t="s">
-        <v>76</v>
-      </c>
-      <c r="M40" s="18">
-        <v>46062.748993055553</v>
-      </c>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="18">
-        <v>46071</v>
-      </c>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="18">
-        <v>46062.749074074083</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="18">
-        <v>46072</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>138</v>
-      </c>
-      <c r="L42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="18">
-        <v>46062.749120370368</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="18">
-        <v>46073</v>
-      </c>
-      <c r="J43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="18">
-        <v>46062.749201388891</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="18">
-        <v>46074</v>
-      </c>
-      <c r="I44" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>138</v>
-      </c>
-      <c r="L44" t="s">
-        <v>68</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="18">
-        <v>46075</v>
-      </c>
-      <c r="I45" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J45" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" t="s">
-        <v>166</v>
-      </c>
-      <c r="L45" t="s">
-        <v>68</v>
-      </c>
-      <c r="M45" s="18">
-        <v>46062.749236111107</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="18">
-        <v>46076</v>
-      </c>
-      <c r="I46" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="s">
-        <v>166</v>
-      </c>
-      <c r="L46" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="18">
-        <v>46062.770439814813</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="18">
-        <v>46077</v>
-      </c>
-      <c r="J47" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" t="s">
-        <v>166</v>
-      </c>
-      <c r="L47" t="s">
-        <v>76</v>
-      </c>
-      <c r="M47" s="18">
-        <v>46062.749363425923</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="18">
-        <v>46078</v>
-      </c>
-      <c r="I48" s="18">
-        <v>46069</v>
-      </c>
-      <c r="J48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" t="s">
-        <v>166</v>
-      </c>
-      <c r="L48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="18">
-        <v>46079</v>
-      </c>
-      <c r="I49" s="18">
-        <v>46075</v>
-      </c>
-      <c r="J49" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" t="s">
-        <v>166</v>
-      </c>
-      <c r="L49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="18">
-        <v>46062.749398148153</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="18">
-        <v>46080</v>
-      </c>
-      <c r="I50" s="18">
-        <v>46079</v>
-      </c>
-      <c r="J50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
-        <v>166</v>
-      </c>
-      <c r="L50" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="18">
-        <v>46062.770451388889</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="18">
-        <v>46081</v>
-      </c>
-      <c r="J51" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" t="s">
-        <v>166</v>
-      </c>
-      <c r="L51" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="18">
-        <v>46062.749513888892</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="18">
-        <v>46081</v>
-      </c>
-      <c r="J52" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" t="s">
-        <v>166</v>
-      </c>
-      <c r="L52" t="s">
-        <v>68</v>
-      </c>
-      <c r="M52" s="18">
-        <v>46062.749560185177</v>
-      </c>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3975,60 +3594,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5">
         <v>25569.229699293981</v>
@@ -4037,22 +3656,22 @@
         <v>1500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J2" s="7">
         <v>25569.22969965278</v>
@@ -4064,7 +3683,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P2" s="7">
         <v>25569.229699293981</v>
@@ -4075,7 +3694,7 @@
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B3" s="5">
         <v>25569.229699305561</v>
@@ -4086,32 +3705,32 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J3" s="7">
         <v>25569.229699664349</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P3" s="7">
         <v>25569.229699305561</v>
@@ -4122,7 +3741,7 @@
     </row>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B4" s="5">
         <v>25569.229699317129</v>
@@ -4131,22 +3750,22 @@
         <v>3200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J4" s="7">
         <v>25569.229699675929</v>
@@ -4156,7 +3775,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7">
         <v>25569.229699317129</v>
@@ -4167,7 +3786,7 @@
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5">
         <v>25569.229699328709</v>
@@ -4178,16 +3797,16 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J5" s="7">
         <v>25569.229699687501</v>
@@ -4196,16 +3815,16 @@
         <v>25569.229699479161</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7">
         <v>25569.229699328709</v>
@@ -4216,7 +3835,7 @@
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5">
         <v>25569.229699340282</v>
@@ -4225,22 +3844,22 @@
         <v>2100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J6" s="7">
         <v>25569.22969969907</v>
@@ -4250,7 +3869,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7">
         <v>25569.229699340282</v>
@@ -4261,7 +3880,7 @@
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5">
         <v>25569.22969935185</v>
@@ -4272,32 +3891,32 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J7" s="7">
         <v>25569.229699872689</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7">
         <v>25569.22969935185</v>
@@ -4308,7 +3927,7 @@
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5">
         <v>25569.22969936343</v>
@@ -4317,22 +3936,22 @@
         <v>1950</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J8" s="7">
         <v>25569.229699884261</v>
@@ -4342,7 +3961,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7">
         <v>25569.22969936343</v>
@@ -4353,7 +3972,7 @@
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B9" s="5">
         <v>25569.229699374999</v>
@@ -4364,16 +3983,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J9" s="7">
         <v>25569.22969989583</v>
@@ -4382,16 +4001,16 @@
         <v>25569.229699513889</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7">
         <v>25569.229699374999</v>
@@ -4402,7 +4021,7 @@
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B10" s="5">
         <v>25569.229699386571</v>
@@ -4411,22 +4030,22 @@
         <v>3100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J10" s="7">
         <v>25569.22969990741</v>
@@ -4436,7 +4055,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7">
         <v>25569.229699386571</v>
@@ -4447,7 +4066,7 @@
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B11" s="5">
         <v>25569.229699398151</v>
@@ -4458,16 +4077,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J11" s="7">
         <v>25569.229699918978</v>
@@ -4476,16 +4095,16 @@
         <v>25569.229699525458</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7">
         <v>25569.229699398151</v>
@@ -4496,7 +4115,7 @@
     </row>
     <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B12" s="10">
         <v>25569.22970143519</v>
@@ -4505,22 +4124,22 @@
         <v>1800</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J12" s="7">
         <v>25569.229701099539</v>
@@ -4530,7 +4149,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P12" s="13">
         <v>25569.22970143519</v>
@@ -4541,7 +4160,7 @@
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B13" s="10">
         <v>25569.229701793982</v>
@@ -4552,32 +4171,32 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J13" s="7">
         <v>25569.229699942131</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="9" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P13" s="13">
         <v>25569.229701793982</v>
@@ -4588,7 +4207,7 @@
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="B14" s="10">
         <v>25569.229702152781</v>
@@ -4597,22 +4216,22 @@
         <v>3100</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J14" s="7">
         <v>25569.229699780091</v>
@@ -4624,7 +4243,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P14" s="13">
         <v>25569.229702152781</v>
@@ -4635,7 +4254,7 @@
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B15" s="10">
         <v>25569.229702500001</v>
@@ -4646,32 +4265,32 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J15" s="7">
         <v>25569.229699791671</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="9" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P15" s="13">
         <v>25569.229702500001</v>
@@ -4682,7 +4301,7 @@
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B16" s="10">
         <v>25569.2297028588</v>
@@ -4691,22 +4310,22 @@
         <v>2750</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J16" s="7">
         <v>25569.229699976851</v>
@@ -4716,7 +4335,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P16" s="13">
         <v>25569.2297028588</v>
@@ -4727,7 +4346,7 @@
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="B17" s="10">
         <v>25569.22970320602</v>
@@ -4738,32 +4357,32 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J17" s="7">
         <v>25569.229699814819</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="9" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="P17" s="13">
         <v>25569.22970320602</v>
@@ -4774,7 +4393,7 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B18" s="13">
         <v>25569.229699479161</v>
@@ -4783,22 +4402,22 @@
         <v>2400</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J18" s="7">
         <v>25569.229699826388</v>
@@ -4808,7 +4427,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P18" s="13">
         <v>25569.229699479161</v>
@@ -4819,7 +4438,7 @@
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B19" s="13">
         <v>25569.229699490741</v>
@@ -4830,32 +4449,32 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J19" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="9" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P19" s="13">
         <v>25569.229699490741</v>
@@ -4866,7 +4485,7 @@
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B20" s="13">
         <v>25569.22969950231</v>
@@ -4875,22 +4494,22 @@
         <v>3250</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J20" s="7">
         <v>25569.22969984954</v>
@@ -4902,7 +4521,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P20" s="13">
         <v>25569.22969950231</v>
@@ -4913,7 +4532,7 @@
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="B21" s="13">
         <v>25569.229699513889</v>
@@ -4924,32 +4543,32 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J21" s="7">
         <v>25569.229699861109</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="9" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P21" s="13">
         <v>25569.229699513889</v>
@@ -4960,7 +4579,7 @@
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="B22" s="13">
         <v>25569.229699525458</v>
@@ -4969,22 +4588,22 @@
         <v>2800</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J22" s="7">
         <v>25569.229699872689</v>
@@ -4994,7 +4613,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P22" s="13">
         <v>25569.229699525458</v>
@@ -5005,7 +4624,7 @@
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B23" s="13">
         <v>25569.229699537042</v>
@@ -5016,32 +4635,32 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J23" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="9" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P23" s="13">
         <v>25569.229699537042</v>
@@ -5052,7 +4671,7 @@
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B24" s="13">
         <v>25569.22969954861</v>
@@ -5061,22 +4680,22 @@
         <v>3300</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J24" s="7">
         <v>25569.229700254629</v>
@@ -5086,7 +4705,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P24" s="13">
         <v>25569.22969954861</v>
@@ -5097,7 +4716,7 @@
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="B25" s="13">
         <v>25569.22969956019</v>
@@ -5108,32 +4727,32 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J25" s="7">
         <v>25569.22969990741</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="9" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P25" s="13">
         <v>25569.22969956019</v>
@@ -5144,7 +4763,7 @@
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="B26" s="13">
         <v>25569.229699571759</v>
@@ -5153,22 +4772,22 @@
         <v>2650</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J26" s="7">
         <v>25569.229699918978</v>
@@ -5178,7 +4797,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P26" s="13">
         <v>25569.229699571759</v>
@@ -5189,7 +4808,7 @@
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B27" s="13">
         <v>25569.229699583331</v>
@@ -5200,32 +4819,32 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J27" s="7">
         <v>25569.229699930551</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="9" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="P27" s="13">
         <v>25569.229699583331</v>
@@ -5236,7 +4855,7 @@
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B28" s="13">
         <v>25569.229699594911</v>
@@ -5245,22 +4864,22 @@
         <v>3000</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J28" s="7">
         <v>25569.229699942131</v>
@@ -5272,7 +4891,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P28" s="13">
         <v>25569.229699594911</v>
@@ -5283,7 +4902,7 @@
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B29" s="13">
         <v>25569.22969960648</v>
@@ -5294,32 +4913,32 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J29" s="7">
         <v>25569.229700127311</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="9" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P29" s="13">
         <v>25569.22969960648</v>
@@ -5330,7 +4949,7 @@
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="B30" s="13">
         <v>25569.229699618059</v>
@@ -5339,22 +4958,22 @@
         <v>3450</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J30" s="7">
         <v>25569.229699965279</v>
@@ -5366,7 +4985,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P30" s="13">
         <v>25569.229699618059</v>
@@ -5377,7 +4996,7 @@
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B31" s="13">
         <v>25569.229699629632</v>
@@ -5388,32 +5007,32 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J31" s="7">
         <v>25569.229699976851</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="9" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P31" s="13">
         <v>25569.229699629632</v>
@@ -5424,7 +5043,7 @@
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B32" s="13">
         <v>25569.229699641201</v>
@@ -5433,22 +5052,22 @@
         <v>2900</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J32" s="7">
         <v>25569.229699988431</v>
@@ -5458,7 +5077,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P32" s="13">
         <v>25569.229699641201</v>
@@ -5469,7 +5088,7 @@
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B33" s="13">
         <v>25569.22969965278</v>
@@ -5480,32 +5099,32 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J33" s="7">
         <v>25569.229700173611</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="9" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P33" s="13">
         <v>25569.22969965278</v>
@@ -5516,7 +5135,7 @@
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B34" s="13">
         <v>25569.229699664349</v>
@@ -5525,22 +5144,22 @@
         <v>3300</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J34" s="7">
         <v>25569.229700358799</v>
@@ -5550,7 +5169,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P34" s="13">
         <v>25569.229699664349</v>
@@ -5561,7 +5180,7 @@
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B35" s="13">
         <v>25569.229699675929</v>
@@ -5572,32 +5191,32 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J35" s="7">
         <v>25569.229700011569</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="9" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P35" s="13">
         <v>25569.229699675929</v>
@@ -5608,7 +5227,7 @@
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="B36" s="13">
         <v>25569.229699687501</v>
@@ -5617,22 +5236,22 @@
         <v>2750</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J36" s="7">
         <v>25569.229700023148</v>
@@ -5642,7 +5261,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P36" s="13">
         <v>25569.229699687501</v>
@@ -5653,7 +5272,7 @@
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="B37" s="10">
         <v>25569.22969935185</v>
@@ -5664,32 +5283,32 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J37" s="7">
         <v>25569.229700034721</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="9" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P37" s="13">
         <v>25569.22969935185</v>
@@ -5700,7 +5319,7 @@
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="B38" s="10">
         <v>25569.22969971065</v>
@@ -5709,22 +5328,22 @@
         <v>3450</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J38" s="7">
         <v>25569.2297000463</v>
@@ -5736,7 +5355,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P38" s="13">
         <v>25569.22969971065</v>
@@ -5747,7 +5366,7 @@
     </row>
     <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B39" s="10">
         <v>25569.229700034721</v>
@@ -5758,32 +5377,32 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J39" s="7">
         <v>25569.229700219908</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="9" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P39" s="13">
         <v>25569.229700034721</v>
@@ -5794,7 +5413,7 @@
     </row>
     <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B40" s="10">
         <v>25569.22970039352</v>
@@ -5803,22 +5422,22 @@
         <v>3100</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J40" s="7">
         <v>25569.229700069449</v>
@@ -5828,7 +5447,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P40" s="13">
         <v>25569.22970039352</v>
@@ -5839,7 +5458,7 @@
     </row>
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="B41" s="10">
         <v>25569.22970074074</v>
@@ -5850,32 +5469,32 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J41" s="7">
         <v>25569.229700081021</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="9" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P41" s="13">
         <v>25569.22970074074</v>
@@ -5886,7 +5505,7 @@
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="B42" s="10">
         <v>25569.229701099539</v>
@@ -5895,22 +5514,22 @@
         <v>2850</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J42" s="7">
         <v>25569.22970009259</v>
@@ -5920,7 +5539,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P42" s="13">
         <v>25569.229701099539</v>
@@ -5931,7 +5550,7 @@
     </row>
     <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="B43" s="10">
         <v>25569.229701446759</v>
@@ -5942,32 +5561,32 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="J43" s="7">
         <v>25569.22970028935</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="9" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P43" s="13">
         <v>25569.229701446759</v>
@@ -5978,7 +5597,7 @@
     </row>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B44" s="10">
         <v>25569.229701805551</v>
@@ -5987,22 +5606,22 @@
         <v>3200</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J44" s="7">
         <v>25569.229700358799</v>
@@ -6014,7 +5633,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P44" s="13">
         <v>25569.229701805551</v>
@@ -6025,7 +5644,7 @@
     </row>
     <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B45" s="10">
         <v>25569.22970216435</v>
@@ -6036,32 +5655,32 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J45" s="7">
         <v>25569.229700138891</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="9" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P45" s="13">
         <v>25569.22970216435</v>
@@ -6072,7 +5691,7 @@
     </row>
     <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="B46" s="10">
         <v>25569.229702511569</v>
@@ -6081,22 +5700,22 @@
         <v>3100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J46" s="7">
         <v>25569.229700370372</v>
@@ -6106,7 +5725,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P46" s="13">
         <v>25569.229702511569</v>
@@ -6117,7 +5736,7 @@
     </row>
     <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10">
         <v>25569.229702870369</v>
@@ -6128,32 +5747,32 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J47" s="7">
         <v>25569.229700162039</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="9" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="P47" s="13">
         <v>25569.229702870369</v>
@@ -6164,7 +5783,7 @@
     </row>
     <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B48" s="10">
         <v>25569.229703217588</v>
@@ -6173,22 +5792,22 @@
         <v>2750</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J48" s="7">
         <v>25569.229700162039</v>
@@ -6200,7 +5819,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P48" s="13">
         <v>25569.229703217588</v>
@@ -6211,7 +5830,7 @@
     </row>
     <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B49" s="13">
         <v>25569.229699837961</v>
@@ -6222,32 +5841,32 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J49" s="7">
         <v>25569.22970018518</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="9" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="P49" s="13">
         <v>25569.229699837961</v>
@@ -6258,7 +5877,7 @@
     </row>
     <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B50" s="13">
         <v>25569.22969984954</v>
@@ -6267,22 +5886,22 @@
         <v>3150</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J50" s="7">
         <v>25569.22970019676</v>
@@ -6292,7 +5911,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P50" s="13">
         <v>25569.22969984954</v>
@@ -6303,7 +5922,7 @@
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="B51" s="13">
         <v>25569.229699861109</v>
@@ -6314,32 +5933,32 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J51" s="7">
         <v>25569.229700208329</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="9" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P51" s="13">
         <v>25569.229699861109</v>
